--- a/Real faults/Internal faults/AC/Two terminals/2020_06_22_03h31min43s_LT_230kV/200622_dados LT.xlsx
+++ b/Real faults/Internal faults/AC/Two terminals/2020_06_22_03h31min43s_LT_230kV/200622_dados LT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{86B072D7-6A27-4F58-9950-895A36AE1D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC878F87-68F1-4A33-A1E5-AB62C46905AF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92ED25E-AFBA-469E-BD17-0E3E0600F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados de Entrada" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="109">
   <si>
     <t>Dados da Linha</t>
   </si>
@@ -357,10 +357,7 @@
 Religamento automático atuou com sucesso</t>
   </si>
   <si>
-    <t>UBR</t>
-  </si>
-  <si>
-    <t>UMB</t>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -773,7 +770,127 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,133 +911,13 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -992,7 +989,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VA_UBR_Pré Falta</c:v>
+                  <c:v>VA_A_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1064,7 +1061,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VB_UBR_Pré Falta</c:v>
+                  <c:v>VB_A_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,7 +1133,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VC_UBR_Pré Falta</c:v>
+                  <c:v>VC_A_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1208,7 +1205,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IA_UBR_Pré Falta</c:v>
+                  <c:v>IA_A_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1281,7 +1278,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IB_UBR_Pré Falta</c:v>
+                  <c:v>IB_A_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1354,7 +1351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IC_UBR_Pré Falta</c:v>
+                  <c:v>IC_A_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,7 +1521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VA_UBR_Falta</c:v>
+                  <c:v>VA_A_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1596,7 +1593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VB_UBR_Falta</c:v>
+                  <c:v>VB_A_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1668,7 +1665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VC_UBR_Falta</c:v>
+                  <c:v>VC_A_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1740,7 +1737,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IA_UBR_Falta</c:v>
+                  <c:v>IA_A_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1813,7 +1810,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IB_UBR_Falta</c:v>
+                  <c:v>IB_A_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1886,7 +1883,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IC_UBR_Falta</c:v>
+                  <c:v>IC_A_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2061,7 +2058,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VA_UMB_Pré Falta</c:v>
+                  <c:v>VA_B_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2133,7 +2130,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VB_UMB_Pré Falta</c:v>
+                  <c:v>VB_B_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2205,7 +2202,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VC_UMB_Pré Falta</c:v>
+                  <c:v>VC_B_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2277,7 +2274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IA_UMB_Pré Falta</c:v>
+                  <c:v>IA_B_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2350,7 +2347,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IB_UMB_Pré Falta</c:v>
+                  <c:v>IB_B_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2423,7 +2420,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IC_UMB_Pré Falta</c:v>
+                  <c:v>IC_B_Pré Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2593,7 +2590,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VA_UMB_Falta</c:v>
+                  <c:v>VA_B_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2665,7 +2662,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VB_UMB_Falta</c:v>
+                  <c:v>VB_B_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2737,7 +2734,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>VC_UMB_Falta</c:v>
+                  <c:v>VC_B_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2809,7 +2806,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IA_UMB_Falta</c:v>
+                  <c:v>IA_B_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2882,7 +2879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IB_UMB_Falta</c:v>
+                  <c:v>IB_B_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2955,7 +2952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IC_UMB_Falta</c:v>
+                  <c:v>IC_B_Falta</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3550,53 +3547,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="I1" s="10"/>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -3616,7 +3613,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3632,17 +3629,17 @@
         <v>62</v>
       </c>
       <c r="L2" s="10"/>
-      <c r="M2" s="60" t="s">
+      <c r="M2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="58" t="s">
+      <c r="N2" s="98"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
       <c r="U2" s="1"/>
       <c r="V2" s="2" t="s">
         <v>20</v>
@@ -3660,7 +3657,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -3689,18 +3686,18 @@
       </c>
       <c r="N3" s="37" t="str">
         <f>A4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="O3" s="39">
         <v>19.68</v>
       </c>
-      <c r="P3" s="58" t="str">
+      <c r="P3" s="95" t="str">
         <f>IF(C15="Não Houve","Não Houve",100*(C15-O3)/O3)</f>
         <v>Não Houve</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2" t="s">
         <v>21</v>
@@ -3715,12 +3712,12 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>108</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>109</v>
       </c>
       <c r="C4" s="20">
         <v>230</v>
@@ -3740,18 +3737,18 @@
       </c>
       <c r="N4" s="33" t="str">
         <f>B4</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="O4" s="39">
         <v>16.72</v>
       </c>
-      <c r="P4" s="58" t="str">
+      <c r="P4" s="95" t="str">
         <f>IF(C15="Não Houve","Não Houve",100*(C15-O4)/O4)</f>
         <v>Não Houve</v>
       </c>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="58"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2" t="s">
         <v>22</v>
@@ -3766,7 +3763,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3790,37 +3787,37 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A6" s="97" t="s">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="94" t="s">
+      <c r="J6" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="96"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="80" t="s">
+      <c r="V6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="82"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="67"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>90</v>
       </c>
@@ -3848,7 +3845,7 @@
       </c>
       <c r="K7" s="13" t="str">
         <f>A4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -3871,7 +3868,7 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>99</v>
       </c>
@@ -3931,7 +3928,7 @@
       </c>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>100</v>
       </c>
@@ -3965,7 +3962,7 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="50"/>
@@ -3979,7 +3976,7 @@
       </c>
       <c r="K10" s="14" t="str">
         <f>B4</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -3988,15 +3985,15 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="80" t="s">
+      <c r="V10" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="81"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="82"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="67"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -4038,11 +4035,11 @@
       </c>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
+    <row r="12" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="20" t="s">
         <v>82</v>
       </c>
@@ -4078,11 +4075,11 @@
       </c>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63" t="s">
+    <row r="13" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="63"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="20" t="s">
         <v>82</v>
       </c>
@@ -4100,7 +4097,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -4118,18 +4115,18 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="87" t="s">
+    <row r="15" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="59"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="I15" s="10"/>
@@ -4142,7 +4139,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4151,18 +4148,18 @@
       <c r="F16" s="47"/>
       <c r="G16" s="47"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="94" t="s">
+      <c r="J16" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="96"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I17" s="10"/>
       <c r="J17" s="42" t="s">
         <v>14</v>
@@ -4178,7 +4175,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I18" s="10"/>
       <c r="J18" s="48" t="s">
         <v>31</v>
@@ -4199,16 +4196,16 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="86" t="s">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="I19" s="10"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
@@ -4219,7 +4216,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -4242,18 +4239,18 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="61"/>
       <c r="I21" s="10"/>
       <c r="J21" s="48" t="s">
         <v>31</v>
@@ -4274,19 +4271,19 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="44" t="s">
         <v>73</v>
       </c>
       <c r="D22" s="52"/>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="89"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="45" t="s">
         <v>73</v>
       </c>
@@ -4300,19 +4297,19 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="66" t="s">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="67"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="56">
         <v>6</v>
       </c>
       <c r="D23" s="52"/>
-      <c r="E23" s="84" t="s">
+      <c r="E23" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="85"/>
+      <c r="F23" s="77"/>
       <c r="G23" s="20">
         <v>8</v>
       </c>
@@ -4326,19 +4323,19 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="66" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="67"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="56">
         <v>0</v>
       </c>
       <c r="D24" s="52"/>
-      <c r="E24" s="84" t="s">
+      <c r="E24" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="85"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="20">
         <v>1</v>
       </c>
@@ -4352,19 +4349,19 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="67"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="56">
         <v>4</v>
       </c>
       <c r="D25" s="52"/>
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="85"/>
+      <c r="F25" s="77"/>
       <c r="G25" s="20">
         <v>2</v>
       </c>
@@ -4385,19 +4382,19 @@
       <c r="V25" s="54"/>
       <c r="W25" s="54"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="66" t="s">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="56">
         <v>0</v>
       </c>
       <c r="D26" s="52"/>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="85"/>
+      <c r="F26" s="77"/>
       <c r="G26" s="20">
         <v>0</v>
       </c>
@@ -4418,19 +4415,19 @@
       <c r="V26" s="53"/>
       <c r="W26" s="54"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="56">
         <v>0</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="84" t="s">
+      <c r="E27" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="85"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="20">
         <v>0</v>
       </c>
@@ -4451,19 +4448,19 @@
       <c r="V27" s="53"/>
       <c r="W27" s="54"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="66" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="56">
         <v>0</v>
       </c>
       <c r="D28" s="52"/>
-      <c r="E28" s="84" t="s">
+      <c r="E28" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="85"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="20">
         <v>0</v>
       </c>
@@ -4484,19 +4481,19 @@
       <c r="V28" s="53"/>
       <c r="W28" s="54"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="66" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="67"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="56">
         <v>0</v>
       </c>
       <c r="D29" s="52"/>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="85"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="20">
         <v>0</v>
       </c>
@@ -4519,19 +4516,19 @@
       <c r="V29" s="53"/>
       <c r="W29" s="54"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="66" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="67"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="56">
         <v>0</v>
       </c>
       <c r="D30" s="52"/>
-      <c r="E30" s="84" t="s">
+      <c r="E30" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="85"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="20">
         <v>0</v>
       </c>
@@ -4552,19 +4549,19 @@
       <c r="V30" s="53"/>
       <c r="W30" s="54"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="66" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="67"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="56">
         <v>0</v>
       </c>
       <c r="D31" s="52"/>
-      <c r="E31" s="84" t="s">
+      <c r="E31" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="85"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="20">
         <v>0</v>
       </c>
@@ -4585,19 +4582,19 @@
       <c r="V31" s="53"/>
       <c r="W31" s="54"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="66" t="s">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="67"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="56">
         <v>0</v>
       </c>
       <c r="D32" s="52"/>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="85"/>
+      <c r="F32" s="77"/>
       <c r="G32" s="20">
         <v>0</v>
       </c>
@@ -4618,19 +4615,19 @@
       <c r="V32" s="53"/>
       <c r="W32" s="54"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A33" s="66" t="s">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="67"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="56">
         <v>0</v>
       </c>
       <c r="D33" s="52"/>
-      <c r="E33" s="84" t="s">
+      <c r="E33" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="85"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="20">
         <v>0</v>
       </c>
@@ -4651,7 +4648,7 @@
       <c r="V33" s="53"/>
       <c r="W33" s="54"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -4676,7 +4673,7 @@
       <c r="V34" s="53"/>
       <c r="W34" s="54"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H35" s="54"/>
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
@@ -4694,7 +4691,7 @@
       <c r="V35" s="53"/>
       <c r="W35" s="54"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
       <c r="J36" s="54"/>
@@ -4712,120 +4709,120 @@
       <c r="V36" s="54"/>
       <c r="W36" s="54"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A37" s="80" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="81"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="82"/>
-    </row>
-    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="71" t="s">
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="67"/>
+    </row>
+    <row r="38" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="73"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A39" s="74"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="76"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="79"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A44" s="70" t="s">
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="86"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="87"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="89"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="87"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="89"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="89"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="90"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="91"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="92"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
+      <c r="E44" s="94"/>
+      <c r="F44" s="94"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="63" t="s">
+      <c r="H44" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4840,59 +4837,59 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A46" s="83" t="s">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="12" t="str">
         <f>A4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="83" t="s">
+      <c r="H46" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="83"/>
+      <c r="I46" s="93"/>
       <c r="J46" s="12" t="str">
         <f>A4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A47" s="68" t="s">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69" t="s">
+      <c r="B47" s="81"/>
+      <c r="C47" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="82"/>
+      <c r="E47" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="57"/>
+      <c r="F47" s="83"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="68" t="s">
+      <c r="H47" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69" t="s">
+      <c r="I47" s="81"/>
+      <c r="J47" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K47" s="69"/>
-      <c r="L47" s="57" t="s">
+      <c r="K47" s="82"/>
+      <c r="L47" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="57"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="M47" s="83"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>16</v>
       </c>
@@ -4931,7 +4928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>135.1</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4985,34 +4982,34 @@
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="68" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69" t="s">
+      <c r="B51" s="81"/>
+      <c r="C51" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="57" t="s">
+      <c r="D51" s="82"/>
+      <c r="E51" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="57"/>
+      <c r="F51" s="83"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="68" t="s">
+      <c r="H51" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="68"/>
-      <c r="J51" s="69" t="s">
+      <c r="I51" s="81"/>
+      <c r="J51" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="K51" s="69"/>
-      <c r="L51" s="57" t="s">
+      <c r="K51" s="82"/>
+      <c r="L51" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M51" s="57"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M51" s="83"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>18</v>
       </c>
@@ -5051,7 +5048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>77.5</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>291.14999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -5105,59 +5102,59 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A55" s="59" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="59"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="8" t="str">
         <f>B4</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="D55" s="25"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="59" t="s">
+      <c r="H55" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I55" s="59"/>
+      <c r="I55" s="96"/>
       <c r="J55" s="8" t="str">
         <f>B4</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A56" s="68" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="69" t="s">
+      <c r="B56" s="81"/>
+      <c r="C56" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="69"/>
-      <c r="E56" s="57" t="s">
+      <c r="D56" s="82"/>
+      <c r="E56" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="57"/>
+      <c r="F56" s="83"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="68" t="s">
+      <c r="H56" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="68"/>
-      <c r="J56" s="69" t="s">
+      <c r="I56" s="81"/>
+      <c r="J56" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="K56" s="69"/>
-      <c r="L56" s="57" t="s">
+      <c r="K56" s="82"/>
+      <c r="L56" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="M56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M56" s="83"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>16</v>
       </c>
@@ -5196,7 +5193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="26">
         <v>134.30000000000001</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>120.49</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
@@ -5250,34 +5247,34 @@
       <c r="L59" s="27"/>
       <c r="M59" s="27"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" s="68" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="69" t="s">
+      <c r="B60" s="81"/>
+      <c r="C60" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="69"/>
-      <c r="E60" s="57" t="s">
+      <c r="D60" s="82"/>
+      <c r="E60" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="57"/>
+      <c r="F60" s="83"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="68" t="s">
+      <c r="H60" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="I60" s="68"/>
-      <c r="J60" s="69" t="s">
+      <c r="I60" s="81"/>
+      <c r="J60" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="K60" s="69"/>
-      <c r="L60" s="57" t="s">
+      <c r="K60" s="82"/>
+      <c r="L60" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="M60" s="57"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M60" s="83"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>18</v>
       </c>
@@ -5316,7 +5313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="26">
         <v>77.09</v>
       </c>
@@ -5355,7 +5352,7 @@
         <v>105.58</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -5372,16 +5369,54 @@
   </sheetData>
   <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="74">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="J16:N16"/>
-    <mergeCell ref="V6:Y6"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="A38:M42"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
@@ -5398,54 +5433,16 @@
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="A38:M42"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="J16:N16"/>
+    <mergeCell ref="V6:Y6"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="V10:Y10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C13" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -5465,44 +5462,44 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
       <c r="E1" s="19" t="s">
         <v>59</v>
       </c>
       <c r="F1" s="19"/>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="19" t="s">
         <v>59</v>
       </c>
@@ -5514,14 +5511,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str">
         <f>'Dados de Entrada'!A46:B46</f>
         <v>Terminal A</v>
       </c>
       <c r="B2" s="12" t="str">
         <f>'Dados de Entrada'!A4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="7"/>
@@ -5533,7 +5530,7 @@
       </c>
       <c r="I2" s="12" t="str">
         <f>B2</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -5546,59 +5543,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A3" s="83" t="str">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!A47:B47,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$2,$E$1,$A$1)</f>
-        <v>VA_UBR_Pré Falta</v>
-      </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83" t="str">
+        <v>VA_A_Pré Falta</v>
+      </c>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!C47:D47,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$2,$E$1,$A$1)</f>
-        <v>VB_UBR_Pré Falta</v>
-      </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="str">
+        <v>VB_A_Pré Falta</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!E47:F47,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$2,$E$1,$A$1)</f>
-        <v>VC_UBR_Pré Falta</v>
-      </c>
-      <c r="F3" s="83"/>
+        <v>VC_A_Pré Falta</v>
+      </c>
+      <c r="F3" s="93"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="83" t="str">
+      <c r="H3" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!H47:I47,'Visualização dos Fasores'!$L$1,$I$2,$L$1,$H$1)</f>
-        <v>VA_UBR_Falta</v>
-      </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83" t="str">
+        <v>VA_A_Falta</v>
+      </c>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!J47:K47,'Visualização dos Fasores'!$L$1,$I$2,$L$1,$H$1)</f>
-        <v>VB_UBR_Falta</v>
-      </c>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83" t="str">
+        <v>VB_A_Falta</v>
+      </c>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!L47:M47,'Visualização dos Fasores'!$L$1,$I$2,$L$1,$H$1)</f>
-        <v>VC_UBR_Falta</v>
-      </c>
-      <c r="M3" s="83"/>
+        <v>VC_A_Falta</v>
+      </c>
+      <c r="M3" s="93"/>
       <c r="Z3" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="101" t="s">
+      <c r="AB3" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AI3" s="101" t="s">
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AI3" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AJ3" s="101"/>
-      <c r="AK3" s="101"/>
-      <c r="AL3" s="101"/>
-      <c r="AM3" s="101"/>
-      <c r="AN3" s="101"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AJ3" s="100"/>
+      <c r="AK3" s="100"/>
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>38</v>
       </c>
@@ -5648,7 +5645,7 @@
       </c>
       <c r="AC4" s="12" t="str">
         <f>B2</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -5660,14 +5657,14 @@
       </c>
       <c r="AJ4" s="12" t="str">
         <f>AC4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f>AB7*COS(AC7*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>1.0173915830545881</v>
@@ -5723,39 +5720,39 @@
       <c r="Z5" t="s">
         <v>9</v>
       </c>
-      <c r="AB5" s="83" t="str">
+      <c r="AB5" s="93" t="str">
         <f>A3</f>
-        <v>VA_UBR_Pré Falta</v>
-      </c>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83" t="str">
+        <v>VA_A_Pré Falta</v>
+      </c>
+      <c r="AC5" s="93"/>
+      <c r="AD5" s="93" t="str">
         <f t="shared" ref="AD5" si="0">C3</f>
-        <v>VB_UBR_Pré Falta</v>
-      </c>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83" t="str">
+        <v>VB_A_Pré Falta</v>
+      </c>
+      <c r="AE5" s="93"/>
+      <c r="AF5" s="93" t="str">
         <f t="shared" ref="AF5" si="1">E3</f>
-        <v>VC_UBR_Pré Falta</v>
-      </c>
-      <c r="AG5" s="83"/>
+        <v>VC_A_Pré Falta</v>
+      </c>
+      <c r="AG5" s="93"/>
       <c r="AH5" s="9"/>
-      <c r="AI5" s="83" t="str">
+      <c r="AI5" s="93" t="str">
         <f>AB5</f>
-        <v>VA_UBR_Pré Falta</v>
-      </c>
-      <c r="AJ5" s="83"/>
-      <c r="AK5" s="83" t="str">
+        <v>VA_A_Pré Falta</v>
+      </c>
+      <c r="AJ5" s="93"/>
+      <c r="AK5" s="93" t="str">
         <f t="shared" ref="AK5" si="2">AD5</f>
-        <v>VB_UBR_Pré Falta</v>
-      </c>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83" t="str">
+        <v>VB_A_Pré Falta</v>
+      </c>
+      <c r="AL5" s="93"/>
+      <c r="AM5" s="93" t="str">
         <f t="shared" ref="AM5" si="3">AF5</f>
-        <v>VC_UBR_Pré Falta</v>
-      </c>
-      <c r="AN5" s="83"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.35">
+        <v>VC_A_Pré Falta</v>
+      </c>
+      <c r="AN5" s="93"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>0</v>
       </c>
@@ -5834,38 +5831,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="str">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!A51:B51,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$2,$E$1,$A$1)</f>
-        <v>IA_UBR_Pré Falta</v>
-      </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83" t="str">
+        <v>IA_A_Pré Falta</v>
+      </c>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!C51:D51,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$2,$E$1,$A$1)</f>
-        <v>IB_UBR_Pré Falta</v>
-      </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83" t="str">
+        <v>IB_A_Pré Falta</v>
+      </c>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!E51:F51,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$2,$E$1,$A$1)</f>
-        <v>IC_UBR_Pré Falta</v>
-      </c>
-      <c r="F7" s="83"/>
+        <v>IC_A_Pré Falta</v>
+      </c>
+      <c r="F7" s="93"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="83" t="str">
+      <c r="H7" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!H51:I51,'Visualização dos Fasores'!$L$1,$I$2,$L$1,$H$1)</f>
-        <v>IA_UBR_Falta</v>
-      </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83" t="str">
+        <v>IA_A_Falta</v>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!J51:K51,'Visualização dos Fasores'!$L$1,$I$2,$L$1,$H$1)</f>
-        <v>IB_UBR_Falta</v>
-      </c>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83" t="str">
+        <v>IB_A_Falta</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93" t="str">
         <f>CONCATENATE('Dados de Entrada'!L51:M51,'Visualização dos Fasores'!$L$1,$I$2,$L$1,$H$1)</f>
-        <v>IC_UBR_Falta</v>
-      </c>
-      <c r="M7" s="83"/>
+        <v>IC_A_Falta</v>
+      </c>
+      <c r="M7" s="93"/>
       <c r="Z7" t="s">
         <v>11</v>
       </c>
@@ -5919,7 +5916,7 @@
         <v>-127.05</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>38</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f>AB11*COS(AC11*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>-0.58311387659489256</v>
@@ -6045,39 +6042,39 @@
         <f>AM11*SIN(AN11*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>1.3991240556077202</v>
       </c>
-      <c r="AB9" s="83" t="str">
+      <c r="AB9" s="93" t="str">
         <f>A7</f>
-        <v>IA_UBR_Pré Falta</v>
-      </c>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83" t="str">
+        <v>IA_A_Pré Falta</v>
+      </c>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93" t="str">
         <f t="shared" ref="AD9" si="4">C7</f>
-        <v>IB_UBR_Pré Falta</v>
-      </c>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83" t="str">
+        <v>IB_A_Pré Falta</v>
+      </c>
+      <c r="AE9" s="93"/>
+      <c r="AF9" s="93" t="str">
         <f t="shared" ref="AF9" si="5">E7</f>
-        <v>IC_UBR_Pré Falta</v>
-      </c>
-      <c r="AG9" s="83"/>
+        <v>IC_A_Pré Falta</v>
+      </c>
+      <c r="AG9" s="93"/>
       <c r="AH9" s="9"/>
-      <c r="AI9" s="83" t="str">
+      <c r="AI9" s="93" t="str">
         <f>AB9</f>
-        <v>IA_UBR_Pré Falta</v>
-      </c>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83" t="str">
+        <v>IA_A_Pré Falta</v>
+      </c>
+      <c r="AJ9" s="93"/>
+      <c r="AK9" s="93" t="str">
         <f t="shared" ref="AK9" si="6">AD9</f>
-        <v>IB_UBR_Pré Falta</v>
-      </c>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83" t="str">
+        <v>IB_A_Pré Falta</v>
+      </c>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="93" t="str">
         <f t="shared" ref="AM9" si="7">AF9</f>
-        <v>IC_UBR_Pré Falta</v>
-      </c>
-      <c r="AN9" s="83"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.35">
+        <v>IC_A_Pré Falta</v>
+      </c>
+      <c r="AN9" s="93"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>0</v>
       </c>
@@ -6153,14 +6150,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="str">
         <f>'Dados de Entrada'!A55:B55</f>
         <v>Terminal B</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>'Dados de Entrada'!C55</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6172,7 +6169,7 @@
       </c>
       <c r="I11" s="8" t="str">
         <f>B11</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -6228,38 +6225,38 @@
         <v>41.299999999999983</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A12" s="59" t="str">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!A56:B56,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$11,$E$1,$A$1)</f>
-        <v>VA_UMB_Pré Falta</v>
-      </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59" t="str">
+        <v>VA_B_Pré Falta</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!C56:D56,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$11,$E$1,$A$1)</f>
-        <v>VB_UMB_Pré Falta</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59" t="str">
+        <v>VB_B_Pré Falta</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!E56:F56,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$11,$E$1,$A$1)</f>
-        <v>VC_UMB_Pré Falta</v>
-      </c>
-      <c r="F12" s="59"/>
+        <v>VC_B_Pré Falta</v>
+      </c>
+      <c r="F12" s="96"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="59" t="str">
+      <c r="H12" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!H56:I56,'Visualização dos Fasores'!$L$1,$I$11,$L$1,$H$1)</f>
-        <v>VA_UMB_Falta</v>
-      </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59" t="str">
+        <v>VA_B_Falta</v>
+      </c>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!J56:K56,'Visualização dos Fasores'!$L$1,$I$11,$L$1,$H$1)</f>
-        <v>VB_UMB_Falta</v>
-      </c>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59" t="str">
+        <v>VB_B_Falta</v>
+      </c>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!L56:M56,'Visualização dos Fasores'!$L$1,$I$11,$L$1,$H$1)</f>
-        <v>VC_UMB_Falta</v>
-      </c>
-      <c r="M12" s="59"/>
+        <v>VC_B_Falta</v>
+      </c>
+      <c r="M12" s="96"/>
       <c r="AB12" s="9">
         <v>0</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -6342,7 +6339,7 @@
       </c>
       <c r="AC13" s="8" t="str">
         <f>B11</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
@@ -6354,14 +6351,14 @@
       </c>
       <c r="AJ13" s="8" t="str">
         <f>AC13</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>AB16*COS(AC16*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>1.0113670585065226</v>
@@ -6411,39 +6408,39 @@
         <f>AM16*SIN(AN16*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>-0.81011761485115863</v>
       </c>
-      <c r="AB14" s="59" t="str">
+      <c r="AB14" s="96" t="str">
         <f>A12</f>
-        <v>VA_UMB_Pré Falta</v>
-      </c>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59" t="str">
+        <v>VA_B_Pré Falta</v>
+      </c>
+      <c r="AC14" s="96"/>
+      <c r="AD14" s="96" t="str">
         <f t="shared" ref="AD14" si="8">C12</f>
-        <v>VB_UMB_Pré Falta</v>
-      </c>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59" t="str">
+        <v>VB_B_Pré Falta</v>
+      </c>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="96" t="str">
         <f t="shared" ref="AF14" si="9">E12</f>
-        <v>VC_UMB_Pré Falta</v>
-      </c>
-      <c r="AG14" s="59"/>
+        <v>VC_B_Pré Falta</v>
+      </c>
+      <c r="AG14" s="96"/>
       <c r="AH14" s="9"/>
-      <c r="AI14" s="59" t="str">
+      <c r="AI14" s="96" t="str">
         <f>AB14</f>
-        <v>VA_UMB_Pré Falta</v>
-      </c>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59" t="str">
+        <v>VA_B_Pré Falta</v>
+      </c>
+      <c r="AJ14" s="96"/>
+      <c r="AK14" s="96" t="str">
         <f t="shared" ref="AK14" si="10">AD14</f>
-        <v>VB_UMB_Pré Falta</v>
-      </c>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="59" t="str">
+        <v>VB_B_Pré Falta</v>
+      </c>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="96" t="str">
         <f t="shared" ref="AM14" si="11">AF14</f>
-        <v>VC_UMB_Pré Falta</v>
-      </c>
-      <c r="AN14" s="59"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.35">
+        <v>VC_B_Pré Falta</v>
+      </c>
+      <c r="AN14" s="96"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>0</v>
       </c>
@@ -6519,38 +6516,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="A16" s="59" t="str">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!A60:B60,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$11,$E$1,$A$1)</f>
-        <v>IA_UMB_Pré Falta</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59" t="str">
+        <v>IA_B_Pré Falta</v>
+      </c>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!C60:D60,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$11,$E$1,$A$1)</f>
-        <v>IB_UMB_Pré Falta</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59" t="str">
+        <v>IB_B_Pré Falta</v>
+      </c>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!E60:F60,'Visualização dos Fasores'!$E$1,'Visualização dos Fasores'!$B$11,$E$1,$A$1)</f>
-        <v>IC_UMB_Pré Falta</v>
-      </c>
-      <c r="F16" s="59"/>
+        <v>IC_B_Pré Falta</v>
+      </c>
+      <c r="F16" s="96"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="59" t="str">
+      <c r="H16" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!H60:I60,'Visualização dos Fasores'!$L$1,$I$11,$L$1,$H$1)</f>
-        <v>IA_UMB_Falta</v>
-      </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59" t="str">
+        <v>IA_B_Falta</v>
+      </c>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!J60:K60,'Visualização dos Fasores'!$L$1,$I$11,$L$1,$H$1)</f>
-        <v>IB_UMB_Falta</v>
-      </c>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59" t="str">
+        <v>IB_B_Falta</v>
+      </c>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96" t="str">
         <f>CONCATENATE('Dados de Entrada'!L60:M60,'Visualização dos Fasores'!$L$1,$I$11,$L$1,$H$1)</f>
-        <v>IC_UMB_Falta</v>
-      </c>
-      <c r="M16" s="59"/>
+        <v>IC_B_Falta</v>
+      </c>
+      <c r="M16" s="96"/>
       <c r="AB16" s="8">
         <f>'Dados de Entrada'!A58</f>
         <v>134.30000000000001</v>
@@ -6601,7 +6598,7 @@
         <v>-125.17</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>38</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>AB20*COS(AC20*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>0.56317100399548847</v>
@@ -6727,39 +6724,39 @@
         <f>AM20*SIN(AN20*PI()/180)/('Dados de Entrada'!$W$2/SQRT(3))</f>
         <v>-0.93074964295701912</v>
       </c>
-      <c r="AB18" s="59" t="str">
+      <c r="AB18" s="96" t="str">
         <f>A16</f>
-        <v>IA_UMB_Pré Falta</v>
-      </c>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59" t="str">
+        <v>IA_B_Pré Falta</v>
+      </c>
+      <c r="AC18" s="96"/>
+      <c r="AD18" s="96" t="str">
         <f t="shared" ref="AD18" si="12">C16</f>
-        <v>IB_UMB_Pré Falta</v>
-      </c>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59" t="str">
+        <v>IB_B_Pré Falta</v>
+      </c>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="96" t="str">
         <f t="shared" ref="AF18" si="13">E16</f>
-        <v>IC_UMB_Pré Falta</v>
-      </c>
-      <c r="AG18" s="59"/>
+        <v>IC_B_Pré Falta</v>
+      </c>
+      <c r="AG18" s="96"/>
       <c r="AH18" s="9"/>
-      <c r="AI18" s="59" t="str">
+      <c r="AI18" s="96" t="str">
         <f>AB18</f>
-        <v>IA_UMB_Pré Falta</v>
-      </c>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59" t="str">
+        <v>IA_B_Pré Falta</v>
+      </c>
+      <c r="AJ18" s="96"/>
+      <c r="AK18" s="96" t="str">
         <f t="shared" ref="AK18" si="14">AD18</f>
-        <v>IB_UMB_Pré Falta</v>
-      </c>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59" t="str">
+        <v>IB_B_Pré Falta</v>
+      </c>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="96" t="str">
         <f t="shared" ref="AM18" si="15">AF18</f>
-        <v>IC_UMB_Pré Falta</v>
-      </c>
-      <c r="AN18" s="59"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.35">
+        <v>IC_B_Pré Falta</v>
+      </c>
+      <c r="AN18" s="96"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -6834,7 +6831,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB20" s="8">
         <f>'Dados de Entrada'!A62</f>
         <v>77.09</v>
@@ -6885,7 +6882,7 @@
         <v>-140.07999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB21">
         <v>0</v>
       </c>
@@ -6923,32 +6920,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="AB23" s="101" t="s">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AB23" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="AC23" s="101"/>
-      <c r="AD23" s="101"/>
-      <c r="AE23" s="101"/>
-      <c r="AF23" s="101"/>
-      <c r="AG23" s="101"/>
-      <c r="AI23" s="101" t="s">
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AI23" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AJ23" s="101"/>
-      <c r="AK23" s="101"/>
-      <c r="AL23" s="101"/>
-      <c r="AM23" s="101"/>
-      <c r="AN23" s="101"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="100"/>
+      <c r="AM23" s="100"/>
+      <c r="AN23" s="100"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB24" s="12" t="str">
         <f>AB4</f>
         <v>Terminal A</v>
       </c>
       <c r="AC24" s="12" t="str">
         <f>AC4</f>
-        <v>UBR</v>
+        <v>A</v>
       </c>
       <c r="AI24" s="12" t="str">
         <f>AI4</f>
@@ -6956,36 +6953,36 @@
       </c>
       <c r="AJ24" s="12" t="str">
         <f>AJ4</f>
-        <v>UBR</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.35">
-      <c r="AB25" s="102" t="s">
+        <v>A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AB25" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AC25" s="102"/>
-      <c r="AD25" s="69" t="s">
+      <c r="AC25" s="101"/>
+      <c r="AD25" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AE25" s="69"/>
-      <c r="AF25" s="100" t="s">
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AG25" s="100"/>
-      <c r="AI25" s="102" t="s">
+      <c r="AG25" s="102"/>
+      <c r="AI25" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AJ25" s="102"/>
-      <c r="AK25" s="69" t="s">
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="100" t="s">
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AN25" s="100"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="AN25" s="102"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB26" s="16" t="s">
         <v>47</v>
       </c>
@@ -7029,7 +7026,7 @@
         <v>-122.8</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB27" s="16" t="s">
         <v>48</v>
       </c>
@@ -7073,7 +7070,7 @@
         <v>127.05</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB28" s="16" t="s">
         <v>49</v>
       </c>
@@ -7117,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB29" s="16" t="s">
         <v>50</v>
       </c>
@@ -7161,7 +7158,7 @@
         <v>169.52999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB30" s="16" t="s">
         <v>51</v>
       </c>
@@ -7205,7 +7202,7 @@
         <v>178.77999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB31" s="16" t="s">
         <v>52</v>
       </c>
@@ -7249,39 +7246,39 @@
         <v>168.34999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="AB32" s="12"/>
       <c r="AC32" s="12"/>
       <c r="AI32" s="12"/>
       <c r="AJ32" s="12"/>
     </row>
-    <row r="33" spans="28:40" x14ac:dyDescent="0.35">
-      <c r="AB33" s="102" t="s">
+    <row r="33" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB33" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="69" t="s">
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AE33" s="69"/>
-      <c r="AF33" s="100" t="s">
+      <c r="AE33" s="82"/>
+      <c r="AF33" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="AG33" s="100"/>
-      <c r="AI33" s="102" t="s">
+      <c r="AG33" s="102"/>
+      <c r="AI33" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="AJ33" s="102"/>
-      <c r="AK33" s="69" t="s">
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AL33" s="69"/>
-      <c r="AM33" s="100" t="s">
+      <c r="AL33" s="82"/>
+      <c r="AM33" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="AN33" s="100"/>
-    </row>
-    <row r="34" spans="28:40" x14ac:dyDescent="0.35">
+      <c r="AN33" s="102"/>
+    </row>
+    <row r="34" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB34" s="16" t="s">
         <v>47</v>
       </c>
@@ -7325,7 +7322,7 @@
         <v>-291.14999999999998</v>
       </c>
     </row>
-    <row r="35" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB35" s="16" t="s">
         <v>48</v>
       </c>
@@ -7369,7 +7366,7 @@
         <v>-41.299999999999983</v>
       </c>
     </row>
-    <row r="36" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB36" s="16" t="s">
         <v>49</v>
       </c>
@@ -7413,7 +7410,7 @@
         <v>-168.34999999999997</v>
       </c>
     </row>
-    <row r="37" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB37" s="16" t="s">
         <v>50</v>
       </c>
@@ -7457,7 +7454,7 @@
         <v>1.1800000000000068</v>
       </c>
     </row>
-    <row r="38" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB38" s="16" t="s">
         <v>51</v>
       </c>
@@ -7501,7 +7498,7 @@
         <v>10.430000000000007</v>
       </c>
     </row>
-    <row r="39" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="39" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB39" s="16" t="s">
         <v>52</v>
       </c>
@@ -7545,32 +7542,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="28:40" x14ac:dyDescent="0.35">
-      <c r="AB41" s="101" t="s">
+    <row r="41" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB41" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="101"/>
-      <c r="AE41" s="101"/>
-      <c r="AF41" s="101"/>
-      <c r="AG41" s="101"/>
-      <c r="AI41" s="101" t="s">
+      <c r="AC41" s="100"/>
+      <c r="AD41" s="100"/>
+      <c r="AE41" s="100"/>
+      <c r="AF41" s="100"/>
+      <c r="AG41" s="100"/>
+      <c r="AI41" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AJ41" s="101"/>
-      <c r="AK41" s="101"/>
-      <c r="AL41" s="101"/>
-      <c r="AM41" s="101"/>
-      <c r="AN41" s="101"/>
-    </row>
-    <row r="42" spans="28:40" x14ac:dyDescent="0.35">
+      <c r="AJ41" s="100"/>
+      <c r="AK41" s="100"/>
+      <c r="AL41" s="100"/>
+      <c r="AM41" s="100"/>
+      <c r="AN41" s="100"/>
+    </row>
+    <row r="42" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB42" s="8" t="str">
         <f>AB13</f>
         <v>Terminal B</v>
       </c>
       <c r="AC42" s="8" t="str">
         <f>AC13</f>
-        <v>UMB</v>
+        <v>B</v>
       </c>
       <c r="AI42" s="8" t="str">
         <f>AI13</f>
@@ -7578,36 +7575,36 @@
       </c>
       <c r="AJ42" s="8" t="str">
         <f>AJ13</f>
-        <v>UMB</v>
-      </c>
-    </row>
-    <row r="43" spans="28:40" x14ac:dyDescent="0.35">
-      <c r="AB43" s="102" t="s">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="43" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB43" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AC43" s="102"/>
-      <c r="AD43" s="69" t="s">
+      <c r="AC43" s="101"/>
+      <c r="AD43" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AE43" s="69"/>
-      <c r="AF43" s="100" t="s">
+      <c r="AE43" s="82"/>
+      <c r="AF43" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AG43" s="100"/>
-      <c r="AI43" s="102" t="s">
+      <c r="AG43" s="102"/>
+      <c r="AI43" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AJ43" s="102"/>
-      <c r="AK43" s="69" t="s">
+      <c r="AJ43" s="101"/>
+      <c r="AK43" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AL43" s="69"/>
-      <c r="AM43" s="100" t="s">
+      <c r="AL43" s="82"/>
+      <c r="AM43" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AN43" s="100"/>
-    </row>
-    <row r="44" spans="28:40" x14ac:dyDescent="0.35">
+      <c r="AN43" s="102"/>
+    </row>
+    <row r="44" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB44" s="16" t="s">
         <v>47</v>
       </c>
@@ -7651,7 +7648,7 @@
         <v>-120.49</v>
       </c>
     </row>
-    <row r="45" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB45" s="16" t="s">
         <v>48</v>
       </c>
@@ -7695,7 +7692,7 @@
         <v>125.17</v>
       </c>
     </row>
-    <row r="46" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB46" s="16" t="s">
         <v>49</v>
       </c>
@@ -7739,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB47" s="16" t="s">
         <v>50</v>
       </c>
@@ -7783,7 +7780,7 @@
         <v>168.62</v>
       </c>
     </row>
-    <row r="48" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB48" s="16" t="s">
         <v>51</v>
       </c>
@@ -7827,7 +7824,7 @@
         <v>-17.269999999999996</v>
       </c>
     </row>
-    <row r="49" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="49" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB49" s="16" t="s">
         <v>52</v>
       </c>
@@ -7871,39 +7868,39 @@
         <v>-14.909999999999997</v>
       </c>
     </row>
-    <row r="50" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="50" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB50" s="8"/>
       <c r="AC50" s="8"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
     </row>
-    <row r="51" spans="28:40" x14ac:dyDescent="0.35">
-      <c r="AB51" s="102" t="s">
+    <row r="51" spans="28:40" x14ac:dyDescent="0.25">
+      <c r="AB51" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="AC51" s="102"/>
-      <c r="AD51" s="69" t="s">
+      <c r="AC51" s="101"/>
+      <c r="AD51" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AE51" s="69"/>
-      <c r="AF51" s="100" t="s">
+      <c r="AE51" s="82"/>
+      <c r="AF51" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="AG51" s="100"/>
-      <c r="AI51" s="102" t="s">
+      <c r="AG51" s="102"/>
+      <c r="AI51" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="AJ51" s="102"/>
-      <c r="AK51" s="69" t="s">
+      <c r="AJ51" s="101"/>
+      <c r="AK51" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AL51" s="69"/>
-      <c r="AM51" s="100" t="s">
+      <c r="AL51" s="82"/>
+      <c r="AM51" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="AN51" s="100"/>
-    </row>
-    <row r="52" spans="28:40" x14ac:dyDescent="0.35">
+      <c r="AN51" s="102"/>
+    </row>
+    <row r="52" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB52" s="16" t="s">
         <v>47</v>
       </c>
@@ -7947,7 +7944,7 @@
         <v>-105.58</v>
       </c>
     </row>
-    <row r="53" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="53" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB53" s="16" t="s">
         <v>48</v>
       </c>
@@ -7991,7 +7988,7 @@
         <v>140.07999999999998</v>
       </c>
     </row>
-    <row r="54" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="54" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB54" s="16" t="s">
         <v>49</v>
       </c>
@@ -8035,7 +8032,7 @@
         <v>14.909999999999997</v>
       </c>
     </row>
-    <row r="55" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="55" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB55" s="16" t="s">
         <v>50</v>
       </c>
@@ -8079,7 +8076,7 @@
         <v>183.53000000000003</v>
       </c>
     </row>
-    <row r="56" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="56" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB56" s="16" t="s">
         <v>51</v>
       </c>
@@ -8123,7 +8120,7 @@
         <v>-2.3599999999999994</v>
       </c>
     </row>
-    <row r="57" spans="28:40" x14ac:dyDescent="0.35">
+    <row r="57" spans="28:40" x14ac:dyDescent="0.25">
       <c r="AB57" s="16" t="s">
         <v>52</v>
       </c>
@@ -8170,70 +8167,6 @@
   </sheetData>
   <sheetProtection password="CC3D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="80">
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="AI3:AN3"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF14:AG14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AL14"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AD25:AE25"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AB23:AG23"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AL18"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AD33:AE33"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AI23:AN23"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
     <mergeCell ref="AM51:AN51"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:K1"/>
@@ -8250,6 +8183,70 @@
     <mergeCell ref="AI43:AJ43"/>
     <mergeCell ref="AK43:AL43"/>
     <mergeCell ref="AM43:AN43"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AD33:AE33"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AI23:AN23"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AD25:AE25"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AB23:AG23"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF18:AG18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AL18"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AF14:AG14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AL14"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="AI3:AN3"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2 O5" xr:uid="{00000000-0002-0000-0100-000000000000}">
